--- a/Arbeitszeitnachweis Dezember 2020.xlsx
+++ b/Arbeitszeitnachweis Dezember 2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Studium\E-Maker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Studium\Desktop\Studium\E-Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1075FCAE-B854-47F8-892F-FAFE3793F34E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F4BE5D-A655-497C-9A56-6E8A78FE5A7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>Startzeit</t>
   </si>
@@ -161,6 +161,9 @@
   <si>
     <t>Laborhandout: Zeichnungen Versuchsstände gezeichnet, Bilder Steckdosen und CEE-Stecker, 
 Beginn Aufgaben Zeichnungen</t>
+  </si>
+  <si>
+    <t>Laborhandout: Zeichnungen: Dichtebestimmung, Wasserdampfdestillation</t>
   </si>
 </sst>
 </file>
@@ -613,7 +616,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,11 +682,22 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D4" s="20">
+        <f>HOUR(C4)+MINUTE(C4)/60-HOUR(B4)-MINUTE(B4)/60+D3</f>
+        <v>4.0833333333333339</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>

--- a/Arbeitszeitnachweis Dezember 2020.xlsx
+++ b/Arbeitszeitnachweis Dezember 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Studium\Desktop\Studium\E-Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F4BE5D-A655-497C-9A56-6E8A78FE5A7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B4BBB4-5D54-4684-9E84-B96AA36E62D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Januar 2021" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>Startzeit</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>Laborhandout: Zeichnungen: Dichtebestimmung, Wasserdampfdestillation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laborhandout: Zeichnungen: Destillation mit Zubehör </t>
   </si>
 </sst>
 </file>
@@ -616,7 +619,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,28 +692,48 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="C4" s="3">
-        <v>0.625</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="D4" s="20">
         <f>HOUR(C4)+MINUTE(C4)/60-HOUR(B4)-MINUTE(B4)/60+D3</f>
-        <v>4.0833333333333339</v>
+        <v>4.1666666666666679</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="D5" s="20">
+        <f>HOUR(C5)+MINUTE(C5)/60-HOUR(B5)-MINUTE(B5)/60+D4</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="20"/>
+      <c r="A6" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="D6" s="20">
+        <f>HOUR(C6)+MINUTE(C6)/60-HOUR(B6)-MINUTE(B6)/60+D5</f>
+        <v>8.8333333333333321</v>
+      </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">

--- a/Arbeitszeitnachweis Dezember 2020.xlsx
+++ b/Arbeitszeitnachweis Dezember 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Studium\Desktop\Studium\E-Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B4BBB4-5D54-4684-9E84-B96AA36E62D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B4E284-C80C-485B-BAA5-63025E2CF7CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Januar 2021" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>Startzeit</t>
   </si>
@@ -167,6 +167,24 @@
   </si>
   <si>
     <t xml:space="preserve">Laborhandout: Zeichnungen: Destillation mit Zubehör </t>
+  </si>
+  <si>
+    <t>Laborhandout: Zeichnung: Bildreihe Scheidetrichter, Vakuumfiltration, Beginn Schmelzpunktbestimmung</t>
+  </si>
+  <si>
+    <t>Laborhandout: Zeichnung: Siedepunkt, Rekfraktometer, Schmelzpunkt</t>
+  </si>
+  <si>
+    <t>14:01.2021</t>
+  </si>
+  <si>
+    <t>Laborhandout: Zeichnung: Umkristallisieren + Recherche: Beginn Scheidetrichter Vorgehen</t>
+  </si>
+  <si>
+    <t>Laborhandout: Zeichnung: Dünnschichtchromatografie, Entwässern organischer Proben + Recherche: GC Skizze</t>
+  </si>
+  <si>
+    <t>Laborhandout: Zeichnung: Beginn GC Skizze</t>
   </si>
 </sst>
 </file>
@@ -619,7 +637,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +695,7 @@
         <v>0.6875</v>
       </c>
       <c r="D3" s="20">
-        <f>HOUR(C3)+MINUTE(C3)/60-HOUR(B3)-MINUTE(B3)/60+D2</f>
+        <f t="shared" ref="D3:D9" si="0">HOUR(C3)+MINUTE(C3)/60-HOUR(B3)-MINUTE(B3)/60+D2</f>
         <v>2.8333333333333335</v>
       </c>
       <c r="E3" s="24" t="s">
@@ -695,7 +713,7 @@
         <v>0.62847222222222221</v>
       </c>
       <c r="D4" s="20">
-        <f>HOUR(C4)+MINUTE(C4)/60-HOUR(B4)-MINUTE(B4)/60+D3</f>
+        <f t="shared" si="0"/>
         <v>4.1666666666666679</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -713,7 +731,7 @@
         <v>0.73263888888888884</v>
       </c>
       <c r="D5" s="20">
-        <f>HOUR(C5)+MINUTE(C5)/60-HOUR(B5)-MINUTE(B5)/60+D4</f>
+        <f t="shared" si="0"/>
         <v>5.333333333333333</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -725,50 +743,105 @@
         <v>44208</v>
       </c>
       <c r="B6" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="C6" s="3">
-        <v>0.6875</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="D6" s="20">
-        <f>HOUR(C6)+MINUTE(C6)/60-HOUR(B6)-MINUTE(B6)/60+D5</f>
-        <v>8.8333333333333321</v>
-      </c>
-      <c r="E6" s="5"/>
+        <f t="shared" si="0"/>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="D7" s="20">
+        <f t="shared" si="0"/>
+        <v>7.25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="7"/>
+      <c r="A8" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D8" s="20">
+        <f t="shared" si="0"/>
+        <v>10.083333333333334</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D9" s="20">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="11">
+        <v>44209</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.65625</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D10" s="20">
+        <f>HOUR(C10)+MINUTE(C10)/60-HOUR(B10)-MINUTE(B10)/60+D9</f>
+        <v>12.25</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="20"/>
+      <c r="A11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D11" s="20">
+        <f>HOUR(C11)+MINUTE(C11)/60-HOUR(B11)-MINUTE(B11)/60+D10</f>
+        <v>13.75</v>
+      </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
